--- a/xlsx/L2-1.xlsx
+++ b/xlsx/L2-1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D391FCAA-84CC-40EE-A005-A3061C0AB02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3874E1D-DCDE-454F-80A8-43F5283B3D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="L1" sheetId="1" r:id="rId1"/>
+    <sheet name="L2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +38,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>perc</t>
-  </si>
-  <si>
     <t>UCL</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -86,9 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,11 +206,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$B$1</c:f>
+              <c:f>'L2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>perc</c:v>
+                  <c:v>%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -236,7 +241,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -401,7 +406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$B$2:$B$53</c:f>
+              <c:f>'L2'!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -576,7 +581,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$D$1</c:f>
+              <c:f>'L2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -600,7 +605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -765,7 +770,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$D$2:$D$53</c:f>
+              <c:f>'L2'!$D$2:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -940,7 +945,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$E$1</c:f>
+              <c:f>'L2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,7 +969,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1129,7 +1134,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$E$2:$E$53</c:f>
+              <c:f>'L2'!$E$2:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1304,7 +1309,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$C$1</c:f>
+              <c:f>'L2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1328,7 +1333,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1493,7 +1498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$C$2:$C$53</c:f>
+              <c:f>'L2'!$C$2:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -3312,52 +3317,54 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10.153041308968742</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C33" si="0">MEDIAN(B:B)</f>
+        <v>10.330389227253633</v>
+      </c>
+      <c r="D2" s="2">
+        <f>H$3+(H$2* 3 )</f>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E2" s="2">
+        <f>H$3-(H$2* 3 )</f>
+        <v>4.4437311975724247</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10.153041308968742</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C33" si="0">MEDIAN(B:B)</f>
-        <v>10.330389227253633</v>
-      </c>
-      <c r="D2" s="1">
-        <f>H$3+(H$2* 3 )</f>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E2" s="1">
-        <f>H$3-(H$2* 3 )</f>
-        <v>4.4437311975724247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
       <c r="H2">
         <f>STDEV(B2:B53)</f>
@@ -3365,26 +3372,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>9.0954059070930224</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D53" si="1">H$3+(H$2* 3 )</f>
         <v>16.217047256934841</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E53" si="2">H$3-(H$2* 3 )</f>
         <v>4.4437311975724247</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f>MEDIAN(B:B)</f>
@@ -3392,1001 +3399,1001 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>9.5943494198374673</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>12.639326701963327</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>8.1005619085876628</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>10.319784069842296</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>9.0665241452581107</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>12.205014413707524</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>10.34099438466497</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>12.148209202777283</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>8.8779734357075952</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>8.3150046848766976</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>12.555710089756868</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>10.639616578802537</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>12.763306022315497</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>10.422122431344475</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>10.755229138321406</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>11.820478726730311</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>9.075992652295966</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>8.2559808611488119</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>8.6746491065817146</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>11.839062750424805</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>11.468182808283862</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>19.862482715889598</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>12.058326930862188</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>8.5430589252308042</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>8.9447878457229955</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>11.392461865701488</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>8.2143805512688601</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>10.811351562427321</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>11.663875118481251</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>12.693425653894661</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>8.916898026992877</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" ref="C34:C65" si="3">MEDIAN(B:B)</f>
-        <v>10.330389227253633</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C53" si="3">MEDIAN(B:B)</f>
+        <v>10.330389227253633</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>10.933815862308029</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>10.105615824001992</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>9.0812833558478143</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>11.274402220657677</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>8.807876554205631</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E39" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>11.850153872469646</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>9.8288806423661619</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>11.964093357755502</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>11.650887181043039</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E43" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>9.2006919136498553</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E44" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>8.0337798814707018</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E45" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>11.984800315318067</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D46" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>8.5676222447039212</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D47" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E47" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>10.288208148446174</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D48" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E48" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>12.206936749209641</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D49" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E49" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>9.2577025708189886</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D50" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E50" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>10.311079680744857</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D51" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E51" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>9.8742560969071143</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D52" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E52" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>12.109427739915276</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <f t="shared" si="3"/>
         <v>10.330389227253633</v>
       </c>
-      <c r="D53" s="1">
-        <f t="shared" si="1"/>
-        <v>16.217047256934841</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>16.217047256934841</v>
+      </c>
+      <c r="E53" s="2">
         <f t="shared" si="2"/>
         <v>4.4437311975724247</v>
       </c>
